--- a/data/adjacency_matrix.xlsx
+++ b/data/adjacency_matrix.xlsx
@@ -499,10 +499,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -534,10 +534,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -563,16 +563,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -958,14 +958,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -992,17 +996,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1027,17 +1035,23 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1062,14 +1076,20 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>

--- a/data/adjacency_matrix.xlsx
+++ b/data/adjacency_matrix.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,26 @@
           <t>10</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -505,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -523,6 +543,18 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -540,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -558,6 +590,18 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -575,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -593,6 +637,18 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -610,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -628,21 +684,33 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -663,6 +731,18 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -700,6 +780,18 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -735,6 +827,18 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -770,6 +874,18 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -805,6 +921,18 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -840,6 +968,18 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -873,6 +1013,206 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -887,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,28 +1291,42 @@
           <t>10</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="B2" t="n">
+        <v>66</v>
+      </c>
+      <c r="C2" t="n">
+        <v>95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -992,28 +1346,34 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="A3" t="n">
+        <v>66</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1033,28 +1393,34 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="A4" t="n">
+        <v>95</v>
+      </c>
+      <c r="B4" t="n">
+        <v>83</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="D4" t="n">
+        <v>68</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1074,28 +1440,34 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="A5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>51</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1113,21 +1485,33 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1148,6 +1532,18 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1185,6 +1581,18 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1220,6 +1628,18 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1255,6 +1675,18 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1290,6 +1722,18 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1325,6 +1769,18 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1358,6 +1814,206 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/adjacency_matrix.xlsx
+++ b/data/adjacency_matrix.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,27 +487,22 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -516,201 +511,181 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="N2" t="n">
         <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="N3" t="n">
         <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="n">
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -730,21 +705,10 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -777,21 +741,10 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -824,21 +777,10 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -871,21 +813,10 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -918,21 +849,10 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -965,256 +885,10 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1227,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,27 +962,22 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1317,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1343,37 +1012,38 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1390,37 +1060,38 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1437,37 +1108,38 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1484,34 +1156,35 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1531,21 +1204,10 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1578,21 +1240,10 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1625,21 +1276,10 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1672,21 +1312,10 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1719,21 +1348,10 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1766,256 +1384,10 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/adjacency_matrix.xlsx
+++ b/data/adjacency_matrix.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,22 +487,132 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -538,15 +648,67 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -579,16 +741,74 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="n">
+      <c r="AF3" t="n">
         <v>1</v>
       </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -622,15 +842,73 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="AH4" t="n">
         <v>1</v>
       </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -664,15 +942,73 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="n">
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -705,10 +1041,72 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -741,10 +1139,74 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -777,10 +1239,68 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -813,10 +1333,72 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -849,10 +1431,72 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -885,10 +1529,1764 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -901,7 +3299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -962,22 +3360,132 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1012,22 +3520,68 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1060,22 +3614,74 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>87</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1108,22 +3714,74 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1156,22 +3814,74 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="n">
+        <v>86</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1204,10 +3914,72 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>87</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="n">
+        <v>92</v>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1240,10 +4012,74 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>92</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>86</v>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1276,10 +4112,68 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1312,10 +4206,72 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1348,10 +4304,72 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="n">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1384,10 +4402,1764 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
